--- a/data/trans_orig/P16A12-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P16A12-Clase-trans_orig.xlsx
@@ -554,7 +554,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
+          <t>Población según si ha consumido medicamentos para la diabetes en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2315,7 +2315,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2012 (tasa de respuesta: 99,75%)</t>
+          <t>Población según si ha consumido medicamentos para la diabetes en las dos últimas semanas en 2012 (tasa de respuesta: 99,75%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4076,7 +4076,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
+          <t>Población según si ha consumido medicamentos para la diabetes en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5837,7 +5837,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2023 (tasa de respuesta: 99,94%)</t>
+          <t>Población según si ha consumido medicamentos para la diabetes en las dos últimas semanas en 2023 (tasa de respuesta: 99,94%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16A12-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P16A12-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>22865</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>15203</v>
+        <v>15330</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>33019</v>
+        <v>33155</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04826141018529641</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03208875694993311</v>
+        <v>0.03235681079705916</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06969428913126835</v>
+        <v>0.06997934350944038</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -765,19 +765,19 @@
         <v>4897</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1792</v>
+        <v>1773</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10830</v>
+        <v>10986</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01596772071906038</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.00584448973211481</v>
+        <v>0.00578107835311185</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03531334859520561</v>
+        <v>0.03582152884934617</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>29</v>
@@ -786,19 +786,19 @@
         <v>27762</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>18528</v>
+        <v>18690</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>40417</v>
+        <v>39213</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03557161003394161</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02373959358276388</v>
+        <v>0.02394747929827402</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05178600653687282</v>
+        <v>0.05024406859665156</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>450911</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>440757</v>
+        <v>440621</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>458573</v>
+        <v>458446</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9517385898147036</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9303057108687314</v>
+        <v>0.9300206564905594</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9679112430500668</v>
+        <v>0.9676431892029409</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>292</v>
@@ -836,19 +836,19 @@
         <v>301783</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>295850</v>
+        <v>295694</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>304888</v>
+        <v>304907</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9840322792809396</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9646866514047943</v>
+        <v>0.9641784711506538</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9941555102678852</v>
+        <v>0.9942189216468882</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>724</v>
@@ -857,19 +857,19 @@
         <v>752695</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>740040</v>
+        <v>741244</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>761929</v>
+        <v>761767</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9644283899660584</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9482139934631272</v>
+        <v>0.9497559314033484</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9762604064172361</v>
+        <v>0.9760525207017259</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>16508</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9840</v>
+        <v>9814</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>24442</v>
+        <v>25320</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04498925995486001</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02681569864109315</v>
+        <v>0.02674634474310459</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06661234454657458</v>
+        <v>0.06900537456026222</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -982,19 +982,19 @@
         <v>5498</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2019</v>
+        <v>1168</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>12581</v>
+        <v>11263</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01478436606281068</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.005430055344988687</v>
+        <v>0.003140496301211121</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03383178076384104</v>
+        <v>0.03028684730011841</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>23</v>
@@ -1003,19 +1003,19 @@
         <v>22006</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>14056</v>
+        <v>14081</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>33290</v>
+        <v>32870</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02978601966420773</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01902611271437416</v>
+        <v>0.01905960432496791</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04505925082301074</v>
+        <v>0.04449145162359056</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>350426</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>342492</v>
+        <v>341614</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>357094</v>
+        <v>357120</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.95501074004514</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9333876554534255</v>
+        <v>0.9309946254397379</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9731843013589069</v>
+        <v>0.9732536552568954</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>358</v>
@@ -1053,19 +1053,19 @@
         <v>366367</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>359284</v>
+        <v>360602</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>369846</v>
+        <v>370697</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9852156339371894</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.966168219236159</v>
+        <v>0.9697131526998815</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9945699446550114</v>
+        <v>0.9968595036987888</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>690</v>
@@ -1074,19 +1074,19 @@
         <v>716793</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>705509</v>
+        <v>705929</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>724743</v>
+        <v>724718</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9702139803357923</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9549407491769892</v>
+        <v>0.9555085483764094</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9809738872856258</v>
+        <v>0.9809403956750321</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>28473</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>20074</v>
+        <v>19927</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>40202</v>
+        <v>39059</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05249581810183998</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03700956744728864</v>
+        <v>0.03673918700026563</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07412032208410188</v>
+        <v>0.07201377468125054</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -1199,19 +1199,19 @@
         <v>12625</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6987</v>
+        <v>7175</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>21629</v>
+        <v>20278</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07524527352583685</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04164186908090529</v>
+        <v>0.04276454255906594</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1289141501388958</v>
+        <v>0.120859723071481</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>42</v>
@@ -1220,19 +1220,19 @@
         <v>41098</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>30125</v>
+        <v>30547</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>54202</v>
+        <v>55341</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05787050535001943</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04241902928959968</v>
+        <v>0.04301354142328007</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07632253176895104</v>
+        <v>0.0779258225760399</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>513916</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>502187</v>
+        <v>503330</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>522315</v>
+        <v>522462</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.94750418189816</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9258796779158981</v>
+        <v>0.9279862253187495</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9629904325527113</v>
+        <v>0.9632608129997344</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>152</v>
@@ -1270,19 +1270,19 @@
         <v>155157</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>146153</v>
+        <v>147504</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>160795</v>
+        <v>160607</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9247547264741631</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8710858498611038</v>
+        <v>0.8791402769285189</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9583581309190947</v>
+        <v>0.9572354574409341</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>654</v>
@@ -1291,19 +1291,19 @@
         <v>669073</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>655969</v>
+        <v>654830</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>680046</v>
+        <v>679624</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9421294946499805</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.923677468231049</v>
+        <v>0.9220741774239604</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9575809707104005</v>
+        <v>0.9569864585767199</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>92091</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>76024</v>
+        <v>74268</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>112344</v>
+        <v>110838</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07436677415127764</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06139181889645291</v>
+        <v>0.0599743754984937</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09072154361258566</v>
+        <v>0.08950542427034822</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>30</v>
@@ -1416,19 +1416,19 @@
         <v>30138</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>21352</v>
+        <v>20685</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>42757</v>
+        <v>42548</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04219345925188506</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02989262522330454</v>
+        <v>0.02895923290130291</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05986034957340817</v>
+        <v>0.05956733574736618</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>127</v>
@@ -1437,19 +1437,19 @@
         <v>122229</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>103012</v>
+        <v>102735</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>143107</v>
+        <v>144907</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06259749491287153</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05275581405787919</v>
+        <v>0.05261374108469016</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07328970361535737</v>
+        <v>0.07421147400901412</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>1146243</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1125990</v>
+        <v>1127496</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1162310</v>
+        <v>1164066</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9256332258487223</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9092784563874142</v>
+        <v>0.9104945757296518</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.938608181103547</v>
+        <v>0.940025624501506</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>664</v>
@@ -1487,19 +1487,19 @@
         <v>684147</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>671528</v>
+        <v>671737</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>692933</v>
+        <v>693600</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9578065407481149</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9401396504265918</v>
+        <v>0.9404326642526337</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9701073747766954</v>
+        <v>0.9710407670986969</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1791</v>
@@ -1508,19 +1508,19 @@
         <v>1830391</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1809513</v>
+        <v>1807713</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1849608</v>
+        <v>1849885</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9374025050871284</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9267102963846425</v>
+        <v>0.9257885259909858</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9472441859421208</v>
+        <v>0.9473862589153098</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>22177</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>14019</v>
+        <v>14469</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>32533</v>
+        <v>31870</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06344605306336183</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04010646473107665</v>
+        <v>0.04139368540262954</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09307457116664691</v>
+        <v>0.09117697152639702</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>27</v>
@@ -1633,19 +1633,19 @@
         <v>29404</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>19712</v>
+        <v>20198</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>42752</v>
+        <v>41891</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05169906206199418</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03465886192198298</v>
+        <v>0.03551228666091099</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07516760469807791</v>
+        <v>0.07365493684016473</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>49</v>
@@ -1654,19 +1654,19 @@
         <v>51581</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>37538</v>
+        <v>39570</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>65363</v>
+        <v>66938</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05617043156802743</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0408779035720188</v>
+        <v>0.043090917968008</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07117898115805053</v>
+        <v>0.07289455224694685</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>327360</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>317004</v>
+        <v>317667</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>335518</v>
+        <v>335068</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9365539469366382</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.906925428833353</v>
+        <v>0.908823028473603</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9598935352689233</v>
+        <v>0.9586063145973704</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>512</v>
@@ -1704,19 +1704,19 @@
         <v>539348</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>526000</v>
+        <v>526861</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>549040</v>
+        <v>548554</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9483009379380059</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9248323953019221</v>
+        <v>0.9263450631598352</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.965341138078017</v>
+        <v>0.964487713339089</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>829</v>
@@ -1725,19 +1725,19 @@
         <v>866708</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>852926</v>
+        <v>851351</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>880751</v>
+        <v>878719</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9438295684319725</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9288210188419493</v>
+        <v>0.927105447753053</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9591220964279812</v>
+        <v>0.9569090820319919</v>
       </c>
     </row>
     <row r="18">
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4574</v>
+        <v>4614</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.003066313466181129</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0153375588930717</v>
+        <v>0.01547137403781883</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>120</v>
@@ -1850,19 +1850,19 @@
         <v>122654</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>104283</v>
+        <v>101742</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>146242</v>
+        <v>145500</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.09822037350416545</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08350916534117289</v>
+        <v>0.08147455721190985</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1171094149894236</v>
+        <v>0.1165155555756538</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>121</v>
@@ -1871,19 +1871,19 @@
         <v>123568</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>102887</v>
+        <v>104488</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>144156</v>
+        <v>146062</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07987795610687375</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06650942346009303</v>
+        <v>0.0675439734171821</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09318687495132551</v>
+        <v>0.09441895828311657</v>
       </c>
     </row>
     <row r="20">
@@ -1900,7 +1900,7 @@
         <v>297287</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>293627</v>
+        <v>293587</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>298201</v>
@@ -1909,7 +1909,7 @@
         <v>0.9969336865338189</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9846624411069284</v>
+        <v>0.984528625962181</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -1921,19 +1921,19 @@
         <v>1126106</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1102518</v>
+        <v>1103260</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1144477</v>
+        <v>1147018</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9017796264958345</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8828905850105764</v>
+        <v>0.8834844444243461</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9164908346588271</v>
+        <v>0.9185254427880901</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1423</v>
@@ -1942,19 +1942,19 @@
         <v>1423392</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1402804</v>
+        <v>1400898</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1444073</v>
+        <v>1442472</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9201220438931262</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9068131250486748</v>
+        <v>0.9055810417168834</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9334905765399073</v>
+        <v>0.9324560265828179</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>183028</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>158427</v>
+        <v>158608</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>208078</v>
+        <v>210724</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05598617930988851</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04846100490015075</v>
+        <v>0.04851622738160224</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06364866983112974</v>
+        <v>0.06445788515932976</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>200</v>
@@ -2067,19 +2067,19 @@
         <v>205215</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>179004</v>
+        <v>179843</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>235529</v>
+        <v>233026</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06074830973826967</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05298913610883521</v>
+        <v>0.05323764938435966</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06972192248379963</v>
+        <v>0.06898082298031902</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>391</v>
@@ -2088,19 +2088,19 @@
         <v>388244</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>350297</v>
+        <v>354946</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>426731</v>
+        <v>428535</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05840627126198867</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05269760440416627</v>
+        <v>0.05339699350687779</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06419617730466799</v>
+        <v>0.06446759767701547</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>3086144</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3061094</v>
+        <v>3058448</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3110745</v>
+        <v>3110564</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9440138206901115</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9363513301688703</v>
+        <v>0.9355421148406702</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9515389950998492</v>
+        <v>0.9514837726183977</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3096</v>
@@ -2138,19 +2138,19 @@
         <v>3172909</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3142595</v>
+        <v>3145098</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3199120</v>
+        <v>3198281</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9392516902617303</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9302780775162003</v>
+        <v>0.931019177019681</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9470108638911647</v>
+        <v>0.9467623506156403</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6111</v>
@@ -2159,19 +2159,19 @@
         <v>6259052</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6220565</v>
+        <v>6218761</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6296999</v>
+        <v>6292350</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9415937287380113</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.935803822695332</v>
+        <v>0.9355324023229847</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9473023955958337</v>
+        <v>0.9466030064931222</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>19041</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11652</v>
+        <v>11255</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>32021</v>
+        <v>29759</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04355013672817772</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02665031318545848</v>
+        <v>0.0257428875561344</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07323964755571995</v>
+        <v>0.06806577579634006</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>11</v>
@@ -2526,19 +2526,19 @@
         <v>12155</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6177</v>
+        <v>6240</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>21256</v>
+        <v>20427</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03865558574259066</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01964205497506074</v>
+        <v>0.01984549213407008</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06759810255460266</v>
+        <v>0.06496058277396755</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>28</v>
@@ -2547,19 +2547,19 @@
         <v>31196</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>21085</v>
+        <v>21172</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>44712</v>
+        <v>43240</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04150253266114985</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02805073719019336</v>
+        <v>0.02816722193279351</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05948427762335303</v>
+        <v>0.05752549881742989</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>418170</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>405190</v>
+        <v>407452</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>425559</v>
+        <v>425956</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9564498632718222</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.92676035244428</v>
+        <v>0.9319342242036599</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9733496868145415</v>
+        <v>0.9742571124438656</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>272</v>
@@ -2597,19 +2597,19 @@
         <v>302299</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>293198</v>
+        <v>294027</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>308277</v>
+        <v>308214</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9613444142574094</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.932401897445397</v>
+        <v>0.9350394172260323</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9803579450249392</v>
+        <v>0.9801545078659298</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>659</v>
@@ -2618,19 +2618,19 @@
         <v>720469</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>706953</v>
+        <v>708425</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>730580</v>
+        <v>730493</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9584974673388501</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9405157223766469</v>
+        <v>0.94247450118257</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9719492628098066</v>
+        <v>0.9718327780672065</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>21847</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13920</v>
+        <v>13633</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>32901</v>
+        <v>32892</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05238936533039835</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03337978455977824</v>
+        <v>0.03269253683852712</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07889564584325963</v>
+        <v>0.07887318039582709</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>8</v>
@@ -2743,19 +2743,19 @@
         <v>9106</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4168</v>
+        <v>3832</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>18136</v>
+        <v>17338</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02715525685223432</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01243056394508294</v>
+        <v>0.01142908909172873</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0540877250365288</v>
+        <v>0.05170689265360504</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>29</v>
@@ -2764,19 +2764,19 @@
         <v>30953</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>21166</v>
+        <v>21316</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>45987</v>
+        <v>43995</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04114250484457285</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02813388692511153</v>
+        <v>0.0283325401939792</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06112623368061326</v>
+        <v>0.05847754728573278</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>395171</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>384117</v>
+        <v>384126</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>403098</v>
+        <v>403385</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9476106346696016</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9211043541567405</v>
+        <v>0.9211268196041732</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9666202154402217</v>
+        <v>0.967307463161473</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>295</v>
@@ -2814,19 +2814,19 @@
         <v>326209</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>317179</v>
+        <v>317977</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>331147</v>
+        <v>331483</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9728447431477657</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9459122749634713</v>
+        <v>0.948293107346395</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9875694360549171</v>
+        <v>0.9885709109082712</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>647</v>
@@ -2835,19 +2835,19 @@
         <v>721380</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>706346</v>
+        <v>708338</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>731167</v>
+        <v>731017</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9588574951554272</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9388737663193865</v>
+        <v>0.9415224527142677</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9718661130748885</v>
+        <v>0.9716674598060208</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>65330</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>49584</v>
+        <v>50287</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>84210</v>
+        <v>82887</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1039737505437986</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07891466453070733</v>
+        <v>0.08003275572747394</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1340213598948687</v>
+        <v>0.1319158886793804</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>15</v>
@@ -2960,19 +2960,19 @@
         <v>16048</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9043</v>
+        <v>8971</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>25956</v>
+        <v>25476</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06221655677904058</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03505913293033008</v>
+        <v>0.03477924601569904</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1006304404413678</v>
+        <v>0.09876601804880063</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>74</v>
@@ -2981,19 +2981,19 @@
         <v>81378</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>64136</v>
+        <v>65879</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>102814</v>
+        <v>101162</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09182080122066873</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07236664093751938</v>
+        <v>0.07433342646552248</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1160075313114526</v>
+        <v>0.1141436775778165</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>562999</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>544119</v>
+        <v>545442</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>578745</v>
+        <v>578042</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8960262494562014</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8659786401051313</v>
+        <v>0.8680841113206195</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9210853354692925</v>
+        <v>0.9199672442725261</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>227</v>
@@ -3031,19 +3031,19 @@
         <v>241890</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>231982</v>
+        <v>232462</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>248895</v>
+        <v>248967</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9377834432209594</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8993695595586323</v>
+        <v>0.9012339819511994</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.96494086706967</v>
+        <v>0.965220753984301</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>758</v>
@@ -3052,19 +3052,19 @@
         <v>804889</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>783453</v>
+        <v>785105</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>822131</v>
+        <v>820388</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9081791987793313</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8839924686885472</v>
+        <v>0.8858563224221836</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9276333590624806</v>
+        <v>0.9256665735344777</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>103281</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>85898</v>
+        <v>84683</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>124672</v>
+        <v>125235</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08924196989040209</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07422148449752754</v>
+        <v>0.07317199575027228</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1077248268847853</v>
+        <v>0.1082121114659362</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>37</v>
@@ -3177,19 +3177,19 @@
         <v>39356</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>27827</v>
+        <v>29229</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>52227</v>
+        <v>53769</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05133499372228859</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03629608660136472</v>
+        <v>0.0381253063207522</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06812367003102188</v>
+        <v>0.07013373105294458</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>133</v>
@@ -3198,19 +3198,19 @@
         <v>142637</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>120680</v>
+        <v>121699</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>168331</v>
+        <v>167830</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0741369402022341</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06272434574146468</v>
+        <v>0.06325412808400421</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08749139887830064</v>
+        <v>0.08723088862687105</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>1054034</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1032643</v>
+        <v>1032080</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1071417</v>
+        <v>1072632</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9107580301095979</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8922751731152146</v>
+        <v>0.8917878885340639</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9257785155024725</v>
+        <v>0.9268280042497278</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>674</v>
@@ -3248,19 +3248,19 @@
         <v>727301</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>714430</v>
+        <v>712888</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>738830</v>
+        <v>737428</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9486650062777114</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9318763299689787</v>
+        <v>0.9298662689470553</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9637039133986354</v>
+        <v>0.9618746936792477</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1659</v>
@@ -3269,19 +3269,19 @@
         <v>1781336</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1755642</v>
+        <v>1756143</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1803293</v>
+        <v>1802274</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.925863059797766</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9125086011216993</v>
+        <v>0.9127691113731285</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9372756542585349</v>
+        <v>0.9367458719159957</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>34844</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>23743</v>
+        <v>23372</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>49507</v>
+        <v>46939</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06824236568538143</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04650035626507133</v>
+        <v>0.04577346664108277</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09695990757696327</v>
+        <v>0.09192929916483832</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>65</v>
@@ -3394,19 +3394,19 @@
         <v>67908</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>52852</v>
+        <v>53108</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>85767</v>
+        <v>84907</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0894341753550998</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06960582033140977</v>
+        <v>0.06994229616111292</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1129541653100558</v>
+        <v>0.1118217446281376</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>96</v>
@@ -3415,19 +3415,19 @@
         <v>102752</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>85672</v>
+        <v>84139</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>125207</v>
+        <v>123771</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08091346435830425</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06746354776318206</v>
+        <v>0.06625632871009253</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09859626179580906</v>
+        <v>0.0974649954383178</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>475752</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>461089</v>
+        <v>463657</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>486853</v>
+        <v>487224</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9317576343146186</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9030400924230371</v>
+        <v>0.9080707008351617</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9534996437349288</v>
+        <v>0.9542265333589172</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>636</v>
@@ -3465,19 +3465,19 @@
         <v>691397</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>673538</v>
+        <v>674398</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>706453</v>
+        <v>706197</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9105658246449002</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8870458346899442</v>
+        <v>0.8881782553718623</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9303941796685902</v>
+        <v>0.9300577038388871</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1092</v>
@@ -3486,19 +3486,19 @@
         <v>1167149</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1144694</v>
+        <v>1146130</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1184229</v>
+        <v>1185762</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9190865356416957</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9014037382041908</v>
+        <v>0.9025350045616828</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9325364522368178</v>
+        <v>0.9337436712899077</v>
       </c>
     </row>
     <row r="18">
@@ -3590,19 +3590,19 @@
         <v>5727</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1857</v>
+        <v>1887</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>14969</v>
+        <v>12578</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02154482084679782</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.006986359354328353</v>
+        <v>0.007099957867619346</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05630730064239844</v>
+        <v>0.04731445914254769</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>146</v>
@@ -3611,19 +3611,19 @@
         <v>154420</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>132357</v>
+        <v>132793</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>177688</v>
+        <v>180359</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1397140981054706</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1197526790674965</v>
+        <v>0.1201464645835962</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1607663048101069</v>
+        <v>0.1631830708481776</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>151</v>
@@ -3632,19 +3632,19 @@
         <v>160147</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>137745</v>
+        <v>136563</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>184946</v>
+        <v>185805</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1168023460786827</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1004629548032779</v>
+        <v>0.09960132575145537</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1348889110658565</v>
+        <v>0.1355154126344069</v>
       </c>
     </row>
     <row r="20">
@@ -3661,19 +3661,19 @@
         <v>260114</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>250872</v>
+        <v>253263</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>263984</v>
+        <v>263954</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9784551791532022</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9436926993576017</v>
+        <v>0.9526855408574506</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9930136406456717</v>
+        <v>0.9929000421323806</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>894</v>
@@ -3682,19 +3682,19 @@
         <v>950836</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>927568</v>
+        <v>924897</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>972899</v>
+        <v>972463</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8602859018945294</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8392336951898933</v>
+        <v>0.8368169291518227</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8802473209325037</v>
+        <v>0.8798535354164039</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1153</v>
@@ -3703,19 +3703,19 @@
         <v>1210951</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1186152</v>
+        <v>1185293</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1233353</v>
+        <v>1234535</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8831976539213173</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8651110889341433</v>
+        <v>0.8644845873655931</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8995370451967222</v>
+        <v>0.9003986742485446</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>250071</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>219088</v>
+        <v>219338</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>281969</v>
+        <v>281342</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07319900976163424</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06413006879790703</v>
+        <v>0.06420325487224522</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08253609033750194</v>
+        <v>0.08235263834003917</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>282</v>
@@ -3828,19 +3828,19 @@
         <v>298993</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>267397</v>
+        <v>269452</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>330676</v>
+        <v>337383</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08448694607915393</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07555867948706506</v>
+        <v>0.07613949127604148</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09343973209122435</v>
+        <v>0.0953348229896924</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>511</v>
@@ -3849,19 +3849,19 @@
         <v>549064</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>504167</v>
+        <v>506323</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>599510</v>
+        <v>599808</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07894247690366914</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07248737444793078</v>
+        <v>0.07279742939044438</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08619553637378806</v>
+        <v>0.08623833312909245</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>3166239</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3134341</v>
+        <v>3134968</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3197222</v>
+        <v>3196972</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9268009902383658</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.917463909662498</v>
+        <v>0.9176473616599607</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9358699312020929</v>
+        <v>0.9357967451277548</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2998</v>
@@ -3899,19 +3899,19 @@
         <v>3239933</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3208250</v>
+        <v>3201543</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3271529</v>
+        <v>3269474</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.915513053920846</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9065602679087756</v>
+        <v>0.9046651770103077</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.924441320512935</v>
+        <v>0.9238605087239585</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5968</v>
@@ -3920,19 +3920,19 @@
         <v>6406172</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6355726</v>
+        <v>6355428</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6451069</v>
+        <v>6448913</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9210575230963308</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9138044636262119</v>
+        <v>0.9137616668709075</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9275126255520693</v>
+        <v>0.9272025706095556</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>30877</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>20925</v>
+        <v>21220</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>43907</v>
+        <v>43455</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07195856473194036</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04876624645435004</v>
+        <v>0.04945430987336021</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.102325156899854</v>
+        <v>0.1012724549764505</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -4287,19 +4287,19 @@
         <v>12626</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6630</v>
+        <v>6254</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>21260</v>
+        <v>20592</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03637924410182619</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01910301441215438</v>
+        <v>0.01802040240130289</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06125714146663784</v>
+        <v>0.05933375493230067</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>39</v>
@@ -4308,19 +4308,19 @@
         <v>43502</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>30462</v>
+        <v>31808</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>58205</v>
+        <v>57955</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05604923426147752</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03924714848464354</v>
+        <v>0.04098235605687438</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07499173924460727</v>
+        <v>0.07466948920449866</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>398215</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>385185</v>
+        <v>385637</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>408167</v>
+        <v>407872</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9280414352680596</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8976748431001459</v>
+        <v>0.8987275450235496</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.95123375354565</v>
+        <v>0.9505456901266403</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>320</v>
@@ -4358,19 +4358,19 @@
         <v>334429</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>325795</v>
+        <v>326463</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>340425</v>
+        <v>340801</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9636207558981738</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9387428585333621</v>
+        <v>0.9406662450676994</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9808969855878458</v>
+        <v>0.9819795975986971</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>689</v>
@@ -4379,19 +4379,19 @@
         <v>732645</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>717942</v>
+        <v>718192</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>745685</v>
+        <v>744339</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9439507657385224</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9250082607553923</v>
+        <v>0.9253305107955014</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9607528515153562</v>
+        <v>0.9590176439431256</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>23155</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>15759</v>
+        <v>15774</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>34340</v>
+        <v>34577</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06138169863970587</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04177636392269843</v>
+        <v>0.04181529830262989</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09103239629142394</v>
+        <v>0.0916612196399562</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>8</v>
@@ -4504,19 +4504,19 @@
         <v>9961</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4480</v>
+        <v>4428</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>21153</v>
+        <v>19685</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02675730080269521</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01203294054352132</v>
+        <v>0.01189319600781567</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05682111266234845</v>
+        <v>0.05287712962580677</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>32</v>
@@ -4525,19 +4525,19 @@
         <v>33116</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>22356</v>
+        <v>23403</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>46037</v>
+        <v>45730</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04418392249564507</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02982738838760065</v>
+        <v>0.03122496323959619</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06142295945259754</v>
+        <v>0.06101377450269659</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>354072</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>342887</v>
+        <v>342650</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>361468</v>
+        <v>361453</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9386183013602941</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9089676037085761</v>
+        <v>0.9083387803600442</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9582236360773015</v>
+        <v>0.9581847016973701</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>344</v>
@@ -4575,19 +4575,19 @@
         <v>362312</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>351120</v>
+        <v>352588</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>367793</v>
+        <v>367845</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9732426991973048</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9431788873376495</v>
+        <v>0.9471228703741927</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9879670594564786</v>
+        <v>0.9881068039921843</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>674</v>
@@ -4596,19 +4596,19 @@
         <v>716384</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>703463</v>
+        <v>703770</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>727144</v>
+        <v>726097</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9558160775043549</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9385770405474025</v>
+        <v>0.9389862254973035</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9701726116123994</v>
+        <v>0.9687750367604039</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>52300</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>39811</v>
+        <v>40376</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>67070</v>
+        <v>68274</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1002085962485283</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07627811781882372</v>
+        <v>0.07736224804223774</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1285068953690486</v>
+        <v>0.1308151918532256</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -4721,19 +4721,19 @@
         <v>10764</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5427</v>
+        <v>5795</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>20253</v>
+        <v>19713</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06479272811926917</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03266912866041614</v>
+        <v>0.03488629305742694</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1219151213544735</v>
+        <v>0.1186663324273988</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>62</v>
@@ -4742,19 +4742,19 @@
         <v>63064</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>49440</v>
+        <v>46902</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>80284</v>
+        <v>77875</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09165762058329538</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07185652976355743</v>
+        <v>0.06816825571582437</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1166858500032843</v>
+        <v>0.11318425080898</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>469614</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>454844</v>
+        <v>453640</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>482103</v>
+        <v>481538</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8997914037514717</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8714931046309514</v>
+        <v>0.8691848081467743</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9237218821811762</v>
+        <v>0.9226377519577622</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>144</v>
@@ -4792,19 +4792,19 @@
         <v>155359</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>145870</v>
+        <v>146410</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>160696</v>
+        <v>160328</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9352072718807308</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.878084878645526</v>
+        <v>0.8813336675726012</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9673308713395835</v>
+        <v>0.9651137069425733</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>593</v>
@@ -4813,19 +4813,19 @@
         <v>624972</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>607752</v>
+        <v>610161</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>638596</v>
+        <v>641134</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9083423794167046</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8833141499967159</v>
+        <v>0.88681574919102</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9281434702364431</v>
+        <v>0.9318317442841755</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>106918</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>88873</v>
+        <v>88187</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>127548</v>
+        <v>126920</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09300165340425424</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07730545382083616</v>
+        <v>0.07670806872422811</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1109458150549635</v>
+        <v>0.1103996265138678</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>28</v>
@@ -4938,19 +4938,19 @@
         <v>30550</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>21456</v>
+        <v>20582</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>43331</v>
+        <v>43003</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0369911225286879</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02597989156871984</v>
+        <v>0.02492165196605913</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05246616860115517</v>
+        <v>0.05206982462655266</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>135</v>
@@ -4959,19 +4959,19 @@
         <v>137468</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>117131</v>
+        <v>115880</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>161323</v>
+        <v>164542</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06958610692018684</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05929155634874399</v>
+        <v>0.05865803348503581</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08166146663422873</v>
+        <v>0.08329067120143997</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>1042720</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1022090</v>
+        <v>1022718</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1060765</v>
+        <v>1061451</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9069983465957457</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8890541849450363</v>
+        <v>0.8896003734861322</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9226945461791637</v>
+        <v>0.9232919312757717</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>770</v>
@@ -5009,19 +5009,19 @@
         <v>795326</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>782545</v>
+        <v>782873</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>804420</v>
+        <v>805294</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9630088774713121</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9475338313988448</v>
+        <v>0.9479301753734473</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9740201084312802</v>
+        <v>0.9750783480339408</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1766</v>
@@ -5030,19 +5030,19 @@
         <v>1838046</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1814191</v>
+        <v>1810972</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1858383</v>
+        <v>1859634</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9304138930798131</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9183385333657712</v>
+        <v>0.9167093287985597</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9407084436512559</v>
+        <v>0.9413419665149639</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>66518</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>53321</v>
+        <v>53139</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>83644</v>
+        <v>83218</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.107165232319861</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0859033205134434</v>
+        <v>0.08561105460362629</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.134756484428734</v>
+        <v>0.1340700152397501</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>60</v>
@@ -5155,19 +5155,19 @@
         <v>67983</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>53308</v>
+        <v>53299</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>86943</v>
+        <v>85838</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09208784321654538</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07220887369651582</v>
+        <v>0.07219710741538951</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.117769409676977</v>
+        <v>0.1162728076109784</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>130</v>
@@ -5176,19 +5176,19 @@
         <v>134501</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>114384</v>
+        <v>111985</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>158296</v>
+        <v>158341</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0989745013067497</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08417066652098212</v>
+        <v>0.0824058485314787</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1164843251813792</v>
+        <v>0.1165170918996959</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>554188</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>537062</v>
+        <v>537488</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>567385</v>
+        <v>567567</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.892834767680139</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8652435155712651</v>
+        <v>0.86592998476025</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9140966794865566</v>
+        <v>0.9143889453963737</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>639</v>
@@ -5226,19 +5226,19 @@
         <v>670261</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>651301</v>
+        <v>652406</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>684936</v>
+        <v>684945</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9079121567834546</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.882230590323023</v>
+        <v>0.8837271923890219</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9277911263034841</v>
+        <v>0.9278028925846111</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1166</v>
@@ -5247,19 +5247,19 @@
         <v>1224449</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1200654</v>
+        <v>1200609</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1244566</v>
+        <v>1246965</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9010254986932503</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8835156748186209</v>
+        <v>0.8834829081003042</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9158293334790181</v>
+        <v>0.9175941514685213</v>
       </c>
     </row>
     <row r="18">
@@ -5351,19 +5351,19 @@
         <v>4039</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1022</v>
+        <v>1122</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9252</v>
+        <v>9398</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01406623772235247</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003559051545721522</v>
+        <v>0.003907189945162777</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03222119649302631</v>
+        <v>0.03272747527411063</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>123</v>
@@ -5372,19 +5372,19 @@
         <v>144989</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>122763</v>
+        <v>121308</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>170651</v>
+        <v>170388</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1339978196459014</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1134563114680222</v>
+        <v>0.1121122752584828</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1577149317170034</v>
+        <v>0.1574711472093822</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>127</v>
@@ -5393,19 +5393,19 @@
         <v>149028</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>125670</v>
+        <v>126943</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>174529</v>
+        <v>173878</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1088455216962432</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09178525642131845</v>
+        <v>0.09271507217655371</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1274706654986524</v>
+        <v>0.1269948336879058</v>
       </c>
     </row>
     <row r="20">
@@ -5422,19 +5422,19 @@
         <v>283106</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>277893</v>
+        <v>277747</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>286123</v>
+        <v>286023</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9859337622776475</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9677788035069738</v>
+        <v>0.9672725247258894</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9964409484542786</v>
+        <v>0.9960928100548372</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>869</v>
@@ -5443,19 +5443,19 @@
         <v>937036</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>911374</v>
+        <v>911637</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>959262</v>
+        <v>960717</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8660021803540986</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8422850682829967</v>
+        <v>0.8425288527906186</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8865436885319777</v>
+        <v>0.8878877247415176</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1137</v>
@@ -5464,19 +5464,19 @@
         <v>1220142</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1194641</v>
+        <v>1195292</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1243500</v>
+        <v>1242227</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8911544783037568</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.872529334501348</v>
+        <v>0.8730051663120942</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9082147435786816</v>
+        <v>0.9072849278234464</v>
       </c>
     </row>
     <row r="21">
@@ -5568,19 +5568,19 @@
         <v>283807</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>254545</v>
+        <v>250534</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>316428</v>
+        <v>318833</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08382475544062246</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07518187734927417</v>
+        <v>0.07399733850705899</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.09345955741895166</v>
+        <v>0.09417000128287036</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>240</v>
@@ -5589,19 +5589,19 @@
         <v>276873</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>245083</v>
+        <v>247462</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>315287</v>
+        <v>315080</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07839869909242962</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06939713137020734</v>
+        <v>0.07007097661913568</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08927616042633901</v>
+        <v>0.08921736492960669</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>525</v>
@@ -5610,19 +5610,19 @@
         <v>560680</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>517312</v>
+        <v>516697</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>609209</v>
+        <v>607599</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08105451442005666</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07478499094306709</v>
+        <v>0.07469618320974793</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08807016998983065</v>
+        <v>0.08783735723614386</v>
       </c>
     </row>
     <row r="23">
@@ -5639,19 +5639,19 @@
         <v>3101915</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3069294</v>
+        <v>3066889</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3131177</v>
+        <v>3135188</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9161752445593775</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9065404425810487</v>
+        <v>0.9058299987171297</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9248181226507262</v>
+        <v>0.9260026614929411</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3086</v>
@@ -5660,19 +5660,19 @@
         <v>3254723</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3216309</v>
+        <v>3216516</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3286513</v>
+        <v>3284134</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9216013009075704</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.910723839573661</v>
+        <v>0.9107826350703934</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9306028686297926</v>
+        <v>0.9299290233808643</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6025</v>
@@ -5681,19 +5681,19 @@
         <v>6356638</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6308109</v>
+        <v>6309719</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6400006</v>
+        <v>6400621</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9189454855799434</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9119298300101693</v>
+        <v>0.9121626427638561</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9252150090569329</v>
+        <v>0.925303816790252</v>
       </c>
     </row>
     <row r="24">
@@ -6027,19 +6027,19 @@
         <v>42131</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>32220</v>
+        <v>32351</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>54883</v>
+        <v>54663</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07651540522983373</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05851671963136472</v>
+        <v>0.05875417489068306</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09967617569302631</v>
+        <v>0.09927631063086344</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>26</v>
@@ -6048,19 +6048,19 @@
         <v>14989</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>10431</v>
+        <v>9990</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>21973</v>
+        <v>21212</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.03068927876694538</v>
+        <v>0.03068927876694537</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02135707308415513</v>
+        <v>0.02045398746584986</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04498819866580329</v>
+        <v>0.04343034546396986</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>83</v>
@@ -6069,19 +6069,19 @@
         <v>57120</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>45451</v>
+        <v>44953</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>71608</v>
+        <v>69844</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.05497416264209613</v>
+        <v>0.05497416264209612</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04374371179180814</v>
+        <v>0.04326477154383975</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06891842719538731</v>
+        <v>0.06722069951092341</v>
       </c>
     </row>
     <row r="5">
@@ -6098,19 +6098,19 @@
         <v>508487</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>495735</v>
+        <v>495955</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>518398</v>
+        <v>518267</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9234845947701663</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9003238243069736</v>
+        <v>0.9007236893691365</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.941483280368635</v>
+        <v>0.941245825109317</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>660</v>
@@ -6119,19 +6119,19 @@
         <v>473422</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>466438</v>
+        <v>467199</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>477980</v>
+        <v>478421</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9693107212330548</v>
+        <v>0.9693107212330547</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9550118013341966</v>
+        <v>0.9565696545360302</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.978642926915845</v>
+        <v>0.9795460125341503</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1157</v>
@@ -6140,19 +6140,19 @@
         <v>981909</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>967421</v>
+        <v>969185</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>993578</v>
+        <v>994076</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9450258373579039</v>
+        <v>0.9450258373579038</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9310815728046127</v>
+        <v>0.9327793004890766</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.956256288208192</v>
+        <v>0.9567352284561603</v>
       </c>
     </row>
     <row r="6">
@@ -6244,19 +6244,19 @@
         <v>42981</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>32621</v>
+        <v>32193</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>55844</v>
+        <v>56878</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.08894760409618786</v>
+        <v>0.08894760409618784</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06750817705793388</v>
+        <v>0.06662297411382898</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.115568263095783</v>
+        <v>0.1177084940156497</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>19</v>
@@ -6265,19 +6265,19 @@
         <v>10717</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6656</v>
+        <v>6907</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>16699</v>
+        <v>16078</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02532705631865404</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0157294557193357</v>
+        <v>0.01632213159683161</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03946525383832537</v>
+        <v>0.03799729288430962</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>74</v>
@@ -6286,19 +6286,19 @@
         <v>53698</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>42841</v>
+        <v>42538</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>67201</v>
+        <v>67339</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05924557769766915</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04726774930692681</v>
+        <v>0.04693324160983976</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07414443060194055</v>
+        <v>0.0742964556688175</v>
       </c>
     </row>
     <row r="8">
@@ -6315,19 +6315,19 @@
         <v>440231</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>427368</v>
+        <v>426334</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>450591</v>
+        <v>451019</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9110523959038122</v>
+        <v>0.9110523959038123</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8844317369042171</v>
+        <v>0.8822915059843504</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9324918229420661</v>
+        <v>0.9333770258861709</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>571</v>
@@ -6336,19 +6336,19 @@
         <v>412426</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>406444</v>
+        <v>407065</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>416487</v>
+        <v>416236</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9746729436813458</v>
+        <v>0.974672943681346</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9605347461616744</v>
+        <v>0.9620027071156904</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9842705442806642</v>
+        <v>0.9836778684031683</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>997</v>
@@ -6357,19 +6357,19 @@
         <v>852657</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>839154</v>
+        <v>839016</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>863514</v>
+        <v>863817</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.940754422302331</v>
+        <v>0.9407544223023309</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9258555693980596</v>
+        <v>0.9257035443311823</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9527322506930732</v>
+        <v>0.9530667583901602</v>
       </c>
     </row>
     <row r="9">
@@ -6461,19 +6461,19 @@
         <v>48583</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>37154</v>
+        <v>37793</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>63811</v>
+        <v>62333</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1030147660755807</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07878041406963154</v>
+        <v>0.0801354917300892</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1353044923852464</v>
+        <v>0.1321706736537138</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>33</v>
@@ -6482,19 +6482,19 @@
         <v>18377</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>12601</v>
+        <v>12620</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>25188</v>
+        <v>25069</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.09801039994139217</v>
+        <v>0.09801039994139216</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06720737673382013</v>
+        <v>0.06730579509486544</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1343359359080936</v>
+        <v>0.133705473670205</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>98</v>
@@ -6503,19 +6503,19 @@
         <v>66960</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>55873</v>
+        <v>54471</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>81762</v>
+        <v>81166</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1015911698827283</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08477032751414788</v>
+        <v>0.08264339025287819</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1240496598164254</v>
+        <v>0.1231456782915283</v>
       </c>
     </row>
     <row r="11">
@@ -6532,19 +6532,19 @@
         <v>423029</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>407801</v>
+        <v>409279</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>434458</v>
+        <v>433819</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8969852339244193</v>
+        <v>0.8969852339244192</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8646955076147541</v>
+        <v>0.8678293263462863</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9212195859303683</v>
+        <v>0.9198645082699107</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>256</v>
@@ -6553,19 +6553,19 @@
         <v>169120</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>162309</v>
+        <v>162428</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>174896</v>
+        <v>174877</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.901989600058608</v>
+        <v>0.9019896000586078</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8656640640919064</v>
+        <v>0.866294526329795</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9327926232661798</v>
+        <v>0.9326942049051345</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>679</v>
@@ -6574,19 +6574,19 @@
         <v>592149</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>577347</v>
+        <v>577943</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>603236</v>
+        <v>604638</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8984088301172718</v>
+        <v>0.8984088301172716</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8759503401835746</v>
+        <v>0.8768543217084718</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9152296724858522</v>
+        <v>0.9173566097471223</v>
       </c>
     </row>
     <row r="12">
@@ -6678,19 +6678,19 @@
         <v>121562</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>102235</v>
+        <v>104759</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>141226</v>
+        <v>141583</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1074019012178824</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09032596965849161</v>
+        <v>0.09255591647743265</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1247755464968468</v>
+        <v>0.1250903469899701</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>86</v>
@@ -6699,19 +6699,19 @@
         <v>44883</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>36052</v>
+        <v>36724</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>55310</v>
+        <v>55169</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05215191855472891</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04189129115444897</v>
+        <v>0.04267233300138828</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0642681896860763</v>
+        <v>0.06410420978137997</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>245</v>
@@ -6720,19 +6720,19 @@
         <v>166445</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>146920</v>
+        <v>144891</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>187942</v>
+        <v>188694</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.08353741886839447</v>
+        <v>0.08353741886839448</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07373818937171102</v>
+        <v>0.07271974806559491</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09432694603043881</v>
+        <v>0.09470400037238036</v>
       </c>
     </row>
     <row r="14">
@@ -6749,19 +6749,19 @@
         <v>1010281</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>990617</v>
+        <v>990260</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1029608</v>
+        <v>1027084</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8925980987821176</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8752244535031534</v>
+        <v>0.87490965301003</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9096740303415085</v>
+        <v>0.9074440835225674</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1143</v>
@@ -6770,19 +6770,19 @@
         <v>815732</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>805305</v>
+        <v>805446</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>824563</v>
+        <v>823891</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.947848081445271</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9357318103139237</v>
+        <v>0.93589579021862</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.958108708845551</v>
+        <v>0.9573276669986118</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2102</v>
@@ -6791,19 +6791,19 @@
         <v>1826013</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1804516</v>
+        <v>1803764</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1845538</v>
+        <v>1847567</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9164625811316054</v>
+        <v>0.9164625811316056</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9056730539695612</v>
+        <v>0.9052959996276196</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9262618106282892</v>
+        <v>0.927280251934405</v>
       </c>
     </row>
     <row r="15">
@@ -6895,19 +6895,19 @@
         <v>46299</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>34864</v>
+        <v>35359</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>59452</v>
+        <v>58596</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.0816590407616601</v>
+        <v>0.08165904076166007</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06149185153099899</v>
+        <v>0.0623645769698413</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1048582794723125</v>
+        <v>0.1033489324024244</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>180</v>
@@ -6916,19 +6916,19 @@
         <v>91382</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>78808</v>
+        <v>78921</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>104824</v>
+        <v>105612</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1100816046932963</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09493537719311998</v>
+        <v>0.09507122214114498</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1262744027638675</v>
+        <v>0.1272234356979433</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>243</v>
@@ -6937,19 +6937,19 @@
         <v>137680</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>118872</v>
+        <v>119729</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>155682</v>
+        <v>156304</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.0985470863231355</v>
+        <v>0.09854708632313548</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08508434337310146</v>
+        <v>0.08569814944847115</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.111431670289646</v>
+        <v>0.1118775403840136</v>
       </c>
     </row>
     <row r="17">
@@ -6966,19 +6966,19 @@
         <v>520677</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>507524</v>
+        <v>508380</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>532112</v>
+        <v>531617</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.91834095923834</v>
+        <v>0.9183409592383398</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8951417205276875</v>
+        <v>0.8966510675975755</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9385081484690011</v>
+        <v>0.9376354230301588</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1109</v>
@@ -6987,19 +6987,19 @@
         <v>738745</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>725303</v>
+        <v>724515</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>751319</v>
+        <v>751206</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8899183953067037</v>
+        <v>0.8899183953067038</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8737255972361326</v>
+        <v>0.8727765643020567</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9050646228068799</v>
+        <v>0.9049287778588549</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1592</v>
@@ -7008,19 +7008,19 @@
         <v>1259423</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1241421</v>
+        <v>1240799</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1278231</v>
+        <v>1277374</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9014529136768645</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8885683297103542</v>
+        <v>0.8881224596159862</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9149156566268986</v>
+        <v>0.914301850551529</v>
       </c>
     </row>
     <row r="18">
@@ -7112,19 +7112,19 @@
         <v>2014</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>505</v>
+        <v>529</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6853</v>
+        <v>6222</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.008490106791301723</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.002127702143688217</v>
+        <v>0.002231526879001121</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02888872020012986</v>
+        <v>0.02622889038794411</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>169</v>
@@ -7133,19 +7133,19 @@
         <v>91483</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>78208</v>
+        <v>78207</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>106320</v>
+        <v>107005</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.1085215373068146</v>
+        <v>0.1085215373068145</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09277428591393962</v>
+        <v>0.0927725650443199</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1261216097732173</v>
+        <v>0.1269343221530365</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>172</v>
@@ -7154,19 +7154,19 @@
         <v>93497</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>79575</v>
+        <v>80775</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>109514</v>
+        <v>109348</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.0865535916015321</v>
+        <v>0.08655359160153207</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07366558539923819</v>
+        <v>0.07477596221305984</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1013811325804857</v>
+        <v>0.1012278408469499</v>
       </c>
     </row>
     <row r="20">
@@ -7183,19 +7183,19 @@
         <v>235214</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>230375</v>
+        <v>231006</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>236723</v>
+        <v>236699</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9915098932086982</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9711112797998703</v>
+        <v>0.9737711096120554</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9978722978563118</v>
+        <v>0.9977684731209988</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>988</v>
@@ -7204,19 +7204,19 @@
         <v>751510</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>736673</v>
+        <v>735988</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>764785</v>
+        <v>764786</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8914784626931854</v>
+        <v>0.8914784626931852</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8738783902267828</v>
+        <v>0.8730656778469641</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9072257140860602</v>
+        <v>0.9072274349556801</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1097</v>
@@ -7225,19 +7225,19 @@
         <v>986724</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>970707</v>
+        <v>970873</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1000646</v>
+        <v>999446</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9134464083984679</v>
+        <v>0.9134464083984678</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8986188674195141</v>
+        <v>0.8987721591530501</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9263344146007617</v>
+        <v>0.92522403778694</v>
       </c>
     </row>
     <row r="21">
@@ -7329,19 +7329,19 @@
         <v>303569</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>275844</v>
+        <v>273042</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>335026</v>
+        <v>333535</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08820868477329633</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08015248088976264</v>
+        <v>0.07933829632944613</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.09734927319545962</v>
+        <v>0.09691592267132466</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>513</v>
@@ -7350,19 +7350,19 @@
         <v>271830</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>246934</v>
+        <v>248689</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>296974</v>
+        <v>296199</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07482685772061957</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06797382557568106</v>
+        <v>0.06845695519557948</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08174839561429977</v>
+        <v>0.08153485137700033</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>915</v>
@@ -7371,19 +7371,19 @@
         <v>575399</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>535229</v>
+        <v>537600</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>613352</v>
+        <v>615890</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.08133684000184642</v>
+        <v>0.08133684000184643</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0756585496979767</v>
+        <v>0.07599363314943469</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08670173338393042</v>
+        <v>0.08706051319849233</v>
       </c>
     </row>
     <row r="23">
@@ -7400,19 +7400,19 @@
         <v>3137919</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3106462</v>
+        <v>3107953</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3165644</v>
+        <v>3168446</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9117913152267036</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9026507268045405</v>
+        <v>0.9030840773286753</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9198475191102374</v>
+        <v>0.9206617036705539</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4727</v>
@@ -7421,19 +7421,19 @@
         <v>3360956</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3335812</v>
+        <v>3336587</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3385852</v>
+        <v>3384097</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9251731422793804</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.918251604385701</v>
+        <v>0.9184651486229998</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9320261744243191</v>
+        <v>0.9315430448044206</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>7624</v>
@@ -7442,19 +7442,19 @@
         <v>6498876</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6460923</v>
+        <v>6458385</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6539046</v>
+        <v>6536675</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9186631599981535</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9132982666160694</v>
+        <v>0.9129394868015076</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9243414503020231</v>
+        <v>0.9240063668505655</v>
       </c>
     </row>
     <row r="24">
